--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.85930109505254</v>
+        <v>22.011892</v>
       </c>
       <c r="H2">
-        <v>3.85930109505254</v>
+        <v>66.035676</v>
       </c>
       <c r="I2">
-        <v>0.2626343592714708</v>
+        <v>0.6552976459252341</v>
       </c>
       <c r="J2">
-        <v>0.2626343592714708</v>
+        <v>0.655297645925234</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.875995387917801</v>
+        <v>36.12964566666667</v>
       </c>
       <c r="N2">
-        <v>8.875995387917801</v>
+        <v>108.388937</v>
       </c>
       <c r="O2">
-        <v>0.2914583074046131</v>
+        <v>0.5918749801436802</v>
       </c>
       <c r="P2">
-        <v>0.2914583074046131</v>
+        <v>0.5918749801436801</v>
       </c>
       <c r="Q2">
-        <v>34.25513872027246</v>
+        <v>795.2818584129346</v>
       </c>
       <c r="R2">
-        <v>34.25513872027246</v>
+        <v>7157.536725716412</v>
       </c>
       <c r="S2">
-        <v>0.07654696581955794</v>
+        <v>0.3878542811701983</v>
       </c>
       <c r="T2">
-        <v>0.07654696581955794</v>
+        <v>0.3878542811701982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.85930109505254</v>
+        <v>22.011892</v>
       </c>
       <c r="H3">
-        <v>3.85930109505254</v>
+        <v>66.035676</v>
       </c>
       <c r="I3">
-        <v>0.2626343592714708</v>
+        <v>0.6552976459252341</v>
       </c>
       <c r="J3">
-        <v>0.2626343592714708</v>
+        <v>0.655297645925234</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.26714217809983</v>
+        <v>0.332188</v>
       </c>
       <c r="N3">
-        <v>0.26714217809983</v>
+        <v>0.996564</v>
       </c>
       <c r="O3">
-        <v>0.008772064840338245</v>
+        <v>0.005441895769417007</v>
       </c>
       <c r="P3">
-        <v>0.008772064840338245</v>
+        <v>0.005441895769417007</v>
       </c>
       <c r="Q3">
-        <v>1.030982100475395</v>
+        <v>7.312086379696</v>
       </c>
       <c r="R3">
-        <v>1.030982100475395</v>
+        <v>65.808777417264</v>
       </c>
       <c r="S3">
-        <v>0.002303845628830032</v>
+        <v>0.003566061487069455</v>
       </c>
       <c r="T3">
-        <v>0.002303845628830032</v>
+        <v>0.003566061487069455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.85930109505254</v>
+        <v>22.011892</v>
       </c>
       <c r="H4">
-        <v>3.85930109505254</v>
+        <v>66.035676</v>
       </c>
       <c r="I4">
-        <v>0.2626343592714708</v>
+        <v>0.6552976459252341</v>
       </c>
       <c r="J4">
-        <v>0.2626343592714708</v>
+        <v>0.655297645925234</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.3106019995382</v>
+        <v>24.58086433333333</v>
       </c>
       <c r="N4">
-        <v>21.3106019995382</v>
+        <v>73.742593</v>
       </c>
       <c r="O4">
-        <v>0.6997696277550487</v>
+        <v>0.4026831240869028</v>
       </c>
       <c r="P4">
-        <v>0.6997696277550487</v>
+        <v>0.4026831240869028</v>
       </c>
       <c r="Q4">
-        <v>82.24402963304662</v>
+        <v>541.0713309719854</v>
       </c>
       <c r="R4">
-        <v>82.24402963304662</v>
+        <v>4869.641978747868</v>
       </c>
       <c r="S4">
-        <v>0.1837835478230828</v>
+        <v>0.2638773032679663</v>
       </c>
       <c r="T4">
-        <v>0.1837835478230828</v>
+        <v>0.2638773032679663</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.547388513803466</v>
+        <v>0.572923</v>
       </c>
       <c r="H5">
-        <v>0.547388513803466</v>
+        <v>1.718769</v>
       </c>
       <c r="I5">
-        <v>0.03725105350801316</v>
+        <v>0.0170560119591911</v>
       </c>
       <c r="J5">
-        <v>0.03725105350801316</v>
+        <v>0.0170560119591911</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.875995387917801</v>
+        <v>36.12964566666667</v>
       </c>
       <c r="N5">
-        <v>8.875995387917801</v>
+        <v>108.388937</v>
       </c>
       <c r="O5">
-        <v>0.2914583074046131</v>
+        <v>0.5918749801436802</v>
       </c>
       <c r="P5">
-        <v>0.2914583074046131</v>
+        <v>0.5918749801436801</v>
       </c>
       <c r="Q5">
-        <v>4.858617923918743</v>
+        <v>20.69950498428367</v>
       </c>
       <c r="R5">
-        <v>4.858617923918743</v>
+        <v>186.295544858553</v>
       </c>
       <c r="S5">
-        <v>0.01085712900448419</v>
+        <v>0.0100950267396766</v>
       </c>
       <c r="T5">
-        <v>0.01085712900448419</v>
+        <v>0.0100950267396766</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.547388513803466</v>
+        <v>0.572923</v>
       </c>
       <c r="H6">
-        <v>0.547388513803466</v>
+        <v>1.718769</v>
       </c>
       <c r="I6">
-        <v>0.03725105350801316</v>
+        <v>0.0170560119591911</v>
       </c>
       <c r="J6">
-        <v>0.03725105350801316</v>
+        <v>0.0170560119591911</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.26714217809983</v>
+        <v>0.332188</v>
       </c>
       <c r="N6">
-        <v>0.26714217809983</v>
+        <v>0.996564</v>
       </c>
       <c r="O6">
-        <v>0.008772064840338245</v>
+        <v>0.005441895769417007</v>
       </c>
       <c r="P6">
-        <v>0.008772064840338245</v>
+        <v>0.005441895769417007</v>
       </c>
       <c r="Q6">
-        <v>0.1462305598442868</v>
+        <v>0.190318145524</v>
       </c>
       <c r="R6">
-        <v>0.1462305598442868</v>
+        <v>1.712863309716</v>
       </c>
       <c r="S6">
-        <v>0.0003267686567432009</v>
+        <v>9.281703932384791E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003267686567432009</v>
+        <v>9.281703932384793E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.547388513803466</v>
+        <v>0.572923</v>
       </c>
       <c r="H7">
-        <v>0.547388513803466</v>
+        <v>1.718769</v>
       </c>
       <c r="I7">
-        <v>0.03725105350801316</v>
+        <v>0.0170560119591911</v>
       </c>
       <c r="J7">
-        <v>0.03725105350801316</v>
+        <v>0.0170560119591911</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.3106019995382</v>
+        <v>24.58086433333333</v>
       </c>
       <c r="N7">
-        <v>21.3106019995382</v>
+        <v>73.742593</v>
       </c>
       <c r="O7">
-        <v>0.6997696277550487</v>
+        <v>0.4026831240869028</v>
       </c>
       <c r="P7">
-        <v>0.6997696277550487</v>
+        <v>0.4026831240869028</v>
       </c>
       <c r="Q7">
-        <v>11.66517875678439</v>
+        <v>14.08294253644633</v>
       </c>
       <c r="R7">
-        <v>11.66517875678439</v>
+        <v>126.746482828017</v>
       </c>
       <c r="S7">
-        <v>0.02606715584678577</v>
+        <v>0.006868168180190647</v>
       </c>
       <c r="T7">
-        <v>0.02606715584678577</v>
+        <v>0.006868168180190648</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.2878884568547</v>
+        <v>11.00586266666667</v>
       </c>
       <c r="H8">
-        <v>10.2878884568547</v>
+        <v>33.017588</v>
       </c>
       <c r="I8">
-        <v>0.7001145872205161</v>
+        <v>0.3276463421155749</v>
       </c>
       <c r="J8">
-        <v>0.7001145872205161</v>
+        <v>0.3276463421155749</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.875995387917801</v>
+        <v>36.12964566666667</v>
       </c>
       <c r="N8">
-        <v>8.875995387917801</v>
+        <v>108.388937</v>
       </c>
       <c r="O8">
-        <v>0.2914583074046131</v>
+        <v>0.5918749801436802</v>
       </c>
       <c r="P8">
-        <v>0.2914583074046131</v>
+        <v>0.5918749801436801</v>
       </c>
       <c r="Q8">
-        <v>91.3152504944551</v>
+        <v>397.6379184026617</v>
       </c>
       <c r="R8">
-        <v>91.3152504944551</v>
+        <v>3578.741265623956</v>
       </c>
       <c r="S8">
-        <v>0.204054212580571</v>
+        <v>0.1939256722338053</v>
       </c>
       <c r="T8">
-        <v>0.204054212580571</v>
+        <v>0.1939256722338053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.2878884568547</v>
+        <v>11.00586266666667</v>
       </c>
       <c r="H9">
-        <v>10.2878884568547</v>
+        <v>33.017588</v>
       </c>
       <c r="I9">
-        <v>0.7001145872205161</v>
+        <v>0.3276463421155749</v>
       </c>
       <c r="J9">
-        <v>0.7001145872205161</v>
+        <v>0.3276463421155749</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.26714217809983</v>
+        <v>0.332188</v>
       </c>
       <c r="N9">
-        <v>0.26714217809983</v>
+        <v>0.996564</v>
       </c>
       <c r="O9">
-        <v>0.008772064840338245</v>
+        <v>0.005441895769417007</v>
       </c>
       <c r="P9">
-        <v>0.008772064840338245</v>
+        <v>0.005441895769417007</v>
       </c>
       <c r="Q9">
-        <v>2.748328930412264</v>
+        <v>3.656015507514666</v>
       </c>
       <c r="R9">
-        <v>2.748328930412264</v>
+        <v>32.90413956763199</v>
       </c>
       <c r="S9">
-        <v>0.006141450554765013</v>
+        <v>0.001783017243023704</v>
       </c>
       <c r="T9">
-        <v>0.006141450554765013</v>
+        <v>0.001783017243023704</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.2878884568547</v>
+        <v>11.00586266666667</v>
       </c>
       <c r="H10">
-        <v>10.2878884568547</v>
+        <v>33.017588</v>
       </c>
       <c r="I10">
-        <v>0.7001145872205161</v>
+        <v>0.3276463421155749</v>
       </c>
       <c r="J10">
-        <v>0.7001145872205161</v>
+        <v>0.3276463421155749</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.3106019995382</v>
+        <v>24.58086433333333</v>
       </c>
       <c r="N10">
-        <v>21.3106019995382</v>
+        <v>73.742593</v>
       </c>
       <c r="O10">
-        <v>0.6997696277550487</v>
+        <v>0.4026831240869028</v>
       </c>
       <c r="P10">
-        <v>0.6997696277550487</v>
+        <v>0.4026831240869028</v>
       </c>
       <c r="Q10">
-        <v>219.2410963196737</v>
+        <v>270.5336170806315</v>
       </c>
       <c r="R10">
-        <v>219.2410963196737</v>
+        <v>2434.802553725684</v>
       </c>
       <c r="S10">
-        <v>0.4899189240851801</v>
+        <v>0.1319376526387459</v>
       </c>
       <c r="T10">
-        <v>0.4899189240851801</v>
+        <v>0.1319376526387458</v>
       </c>
     </row>
   </sheetData>
